--- a/data/excelsheets/Epidemiological outcomes for modelling_14Apr15.xlsx
+++ b/data/excelsheets/Epidemiological outcomes for modelling_14Apr15.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="495" windowWidth="18195" windowHeight="10125" firstSheet="11" activeTab="16"/>
+    <workbookView xWindow="360" yWindow="495" windowWidth="18195" windowHeight="10125" firstSheet="22" activeTab="26"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -1620,13 +1620,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1638,32 +1644,8 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1688,6 +1670,24 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1724,22 +1724,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1751,16 +1754,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4427,155 +4427,155 @@
       <c r="AL2" s="33"/>
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A3" s="200" t="s">
+      <c r="A3" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="198"/>
-      <c r="N3" s="196"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="196"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="196"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="197"/>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="198"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="201"/>
-      <c r="AH3" s="201"/>
-      <c r="AI3" s="201"/>
-      <c r="AJ3" s="201"/>
-      <c r="AK3" s="201"/>
-      <c r="AL3" s="201"/>
-      <c r="AM3" s="201"/>
-      <c r="AN3" s="201"/>
-      <c r="AO3" s="201"/>
-      <c r="AP3" s="201"/>
-      <c r="AQ3" s="201"/>
-      <c r="AR3" s="201"/>
-      <c r="AS3" s="201"/>
-      <c r="AT3" s="201"/>
-      <c r="AU3" s="201"/>
-      <c r="AV3" s="201"/>
-      <c r="AW3" s="201"/>
-      <c r="AX3" s="201"/>
-      <c r="AY3" s="201"/>
-      <c r="AZ3" s="201"/>
-      <c r="BA3" s="201"/>
-      <c r="BB3" s="201"/>
-      <c r="BC3" s="201"/>
-      <c r="BD3" s="201"/>
-      <c r="BE3" s="201"/>
-      <c r="BF3" s="201"/>
-      <c r="BG3" s="201"/>
-      <c r="BH3" s="201"/>
-      <c r="BI3" s="201"/>
+      <c r="B3" s="204"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="205"/>
+      <c r="M3" s="206"/>
+      <c r="N3" s="204"/>
+      <c r="O3" s="205"/>
+      <c r="P3" s="205"/>
+      <c r="Q3" s="205"/>
+      <c r="R3" s="205"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="204"/>
+      <c r="U3" s="205"/>
+      <c r="V3" s="205"/>
+      <c r="W3" s="205"/>
+      <c r="X3" s="205"/>
+      <c r="Y3" s="206"/>
+      <c r="Z3" s="204"/>
+      <c r="AA3" s="205"/>
+      <c r="AB3" s="205"/>
+      <c r="AC3" s="205"/>
+      <c r="AD3" s="205"/>
+      <c r="AE3" s="206"/>
+      <c r="AF3" s="195"/>
+      <c r="AG3" s="195"/>
+      <c r="AH3" s="195"/>
+      <c r="AI3" s="195"/>
+      <c r="AJ3" s="195"/>
+      <c r="AK3" s="195"/>
+      <c r="AL3" s="195"/>
+      <c r="AM3" s="195"/>
+      <c r="AN3" s="195"/>
+      <c r="AO3" s="195"/>
+      <c r="AP3" s="195"/>
+      <c r="AQ3" s="195"/>
+      <c r="AR3" s="195"/>
+      <c r="AS3" s="195"/>
+      <c r="AT3" s="195"/>
+      <c r="AU3" s="195"/>
+      <c r="AV3" s="195"/>
+      <c r="AW3" s="195"/>
+      <c r="AX3" s="195"/>
+      <c r="AY3" s="195"/>
+      <c r="AZ3" s="195"/>
+      <c r="BA3" s="195"/>
+      <c r="BB3" s="195"/>
+      <c r="BC3" s="195"/>
+      <c r="BD3" s="195"/>
+      <c r="BE3" s="195"/>
+      <c r="BF3" s="195"/>
+      <c r="BG3" s="195"/>
+      <c r="BH3" s="195"/>
+      <c r="BI3" s="195"/>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A4" s="200"/>
-      <c r="B4" s="193">
+      <c r="A4" s="194"/>
+      <c r="B4" s="201">
         <v>2004</v>
       </c>
-      <c r="C4" s="194"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="194"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="195"/>
-      <c r="H4" s="193">
+      <c r="C4" s="202"/>
+      <c r="D4" s="202"/>
+      <c r="E4" s="202"/>
+      <c r="F4" s="202"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="201">
         <v>2005</v>
       </c>
-      <c r="I4" s="194"/>
-      <c r="J4" s="194"/>
-      <c r="K4" s="194"/>
-      <c r="L4" s="194"/>
-      <c r="M4" s="195"/>
-      <c r="N4" s="193">
+      <c r="I4" s="202"/>
+      <c r="J4" s="202"/>
+      <c r="K4" s="202"/>
+      <c r="L4" s="202"/>
+      <c r="M4" s="203"/>
+      <c r="N4" s="201">
         <v>2006</v>
       </c>
-      <c r="O4" s="194"/>
-      <c r="P4" s="194"/>
-      <c r="Q4" s="194"/>
-      <c r="R4" s="194"/>
-      <c r="S4" s="195"/>
-      <c r="T4" s="193">
+      <c r="O4" s="202"/>
+      <c r="P4" s="202"/>
+      <c r="Q4" s="202"/>
+      <c r="R4" s="202"/>
+      <c r="S4" s="203"/>
+      <c r="T4" s="201">
         <v>2007</v>
       </c>
-      <c r="U4" s="194"/>
-      <c r="V4" s="194"/>
-      <c r="W4" s="194"/>
-      <c r="X4" s="194"/>
-      <c r="Y4" s="195"/>
-      <c r="Z4" s="193">
+      <c r="U4" s="202"/>
+      <c r="V4" s="202"/>
+      <c r="W4" s="202"/>
+      <c r="X4" s="202"/>
+      <c r="Y4" s="203"/>
+      <c r="Z4" s="201">
         <v>2008</v>
       </c>
-      <c r="AA4" s="194"/>
-      <c r="AB4" s="194"/>
-      <c r="AC4" s="194"/>
-      <c r="AD4" s="194"/>
-      <c r="AE4" s="195"/>
-      <c r="AF4" s="199">
+      <c r="AA4" s="202"/>
+      <c r="AB4" s="202"/>
+      <c r="AC4" s="202"/>
+      <c r="AD4" s="202"/>
+      <c r="AE4" s="203"/>
+      <c r="AF4" s="193">
         <v>2009</v>
       </c>
-      <c r="AG4" s="203"/>
-      <c r="AH4" s="203"/>
-      <c r="AI4" s="204"/>
-      <c r="AJ4" s="204"/>
+      <c r="AG4" s="197"/>
+      <c r="AH4" s="197"/>
+      <c r="AI4" s="198"/>
+      <c r="AJ4" s="198"/>
       <c r="AK4" s="177"/>
-      <c r="AL4" s="199">
+      <c r="AL4" s="193">
         <v>2010</v>
       </c>
-      <c r="AM4" s="203"/>
-      <c r="AN4" s="203"/>
-      <c r="AO4" s="204"/>
-      <c r="AP4" s="204"/>
+      <c r="AM4" s="197"/>
+      <c r="AN4" s="197"/>
+      <c r="AO4" s="198"/>
+      <c r="AP4" s="198"/>
       <c r="AQ4" s="177"/>
-      <c r="AR4" s="199">
+      <c r="AR4" s="193">
         <v>2011</v>
       </c>
-      <c r="AS4" s="203"/>
-      <c r="AT4" s="203"/>
-      <c r="AU4" s="204"/>
-      <c r="AV4" s="204"/>
+      <c r="AS4" s="197"/>
+      <c r="AT4" s="197"/>
+      <c r="AU4" s="198"/>
+      <c r="AV4" s="198"/>
       <c r="AW4" s="177"/>
-      <c r="AX4" s="205">
+      <c r="AX4" s="199">
         <v>2012</v>
       </c>
-      <c r="AY4" s="206"/>
-      <c r="AZ4" s="206"/>
-      <c r="BA4" s="204"/>
-      <c r="BB4" s="204"/>
+      <c r="AY4" s="200"/>
+      <c r="AZ4" s="200"/>
+      <c r="BA4" s="198"/>
+      <c r="BB4" s="198"/>
       <c r="BC4" s="177"/>
-      <c r="BD4" s="202">
+      <c r="BD4" s="196">
         <v>2013</v>
       </c>
-      <c r="BE4" s="202"/>
-      <c r="BF4" s="202"/>
-      <c r="BG4" s="202"/>
-      <c r="BH4" s="202"/>
-      <c r="BI4" s="202"/>
+      <c r="BE4" s="196"/>
+      <c r="BF4" s="196"/>
+      <c r="BG4" s="196"/>
+      <c r="BH4" s="196"/>
+      <c r="BI4" s="196"/>
     </row>
     <row r="5" spans="1:61" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="200"/>
+      <c r="A5" s="194"/>
       <c r="B5" s="80" t="s">
         <v>82</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="E5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="199" t="s">
+      <c r="F5" s="193" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="177"/>
@@ -4604,7 +4604,7 @@
       <c r="K5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="199" t="s">
+      <c r="L5" s="193" t="s">
         <v>7</v>
       </c>
       <c r="M5" s="177"/>
@@ -4620,7 +4620,7 @@
       <c r="Q5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="199" t="s">
+      <c r="R5" s="193" t="s">
         <v>7</v>
       </c>
       <c r="S5" s="177"/>
@@ -4636,7 +4636,7 @@
       <c r="W5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="X5" s="199" t="s">
+      <c r="X5" s="193" t="s">
         <v>7</v>
       </c>
       <c r="Y5" s="177"/>
@@ -4652,7 +4652,7 @@
       <c r="AC5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AD5" s="199" t="s">
+      <c r="AD5" s="193" t="s">
         <v>7</v>
       </c>
       <c r="AE5" s="177"/>
@@ -4668,7 +4668,7 @@
       <c r="AI5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AJ5" s="199" t="s">
+      <c r="AJ5" s="193" t="s">
         <v>7</v>
       </c>
       <c r="AK5" s="177"/>
@@ -4684,7 +4684,7 @@
       <c r="AO5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AP5" s="199" t="s">
+      <c r="AP5" s="193" t="s">
         <v>7</v>
       </c>
       <c r="AQ5" s="177"/>
@@ -4700,7 +4700,7 @@
       <c r="AU5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="AV5" s="199" t="s">
+      <c r="AV5" s="193" t="s">
         <v>7</v>
       </c>
       <c r="AW5" s="177"/>
@@ -4716,7 +4716,7 @@
       <c r="BA5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="BB5" s="199" t="s">
+      <c r="BB5" s="193" t="s">
         <v>7</v>
       </c>
       <c r="BC5" s="177"/>
@@ -4732,7 +4732,7 @@
       <c r="BG5" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="BH5" s="199" t="s">
+      <c r="BH5" s="193" t="s">
         <v>7</v>
       </c>
       <c r="BI5" s="177"/>
@@ -6711,6 +6711,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="N4:S4"/>
+    <mergeCell ref="N3:S3"/>
+    <mergeCell ref="R5:S5"/>
     <mergeCell ref="BH5:BI5"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="AF3:BI3"/>
@@ -6727,17 +6738,6 @@
     <mergeCell ref="Z4:AE4"/>
     <mergeCell ref="Z3:AE3"/>
     <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="N4:S4"/>
-    <mergeCell ref="N3:S3"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8844,8 +8844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14:L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8888,24 +8888,24 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="232" t="s">
         <v>139</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
-      <c r="H3" s="221"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="232"/>
+      <c r="H3" s="232"/>
       <c r="I3" s="216" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="204"/>
+      <c r="J3" s="198"/>
       <c r="K3" s="177"/>
       <c r="L3" s="216" t="s">
         <v>146</v>
       </c>
-      <c r="M3" s="204"/>
+      <c r="M3" s="198"/>
       <c r="N3" s="177"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -8914,11 +8914,11 @@
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
       <c r="E4" s="51"/>
-      <c r="F4" s="220" t="s">
+      <c r="F4" s="231" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
+      <c r="G4" s="231"/>
+      <c r="H4" s="231"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -9219,7 +9219,7 @@
       <c r="D14" s="53">
         <v>240</v>
       </c>
-      <c r="E14" s="225">
+      <c r="E14" s="224">
         <f>D14+D15+D16+D17+D18</f>
         <v>1530</v>
       </c>
@@ -9232,24 +9232,24 @@
       <c r="H14" s="54">
         <v>1.2027410106975596</v>
       </c>
-      <c r="I14" s="222">
+      <c r="I14" s="230">
         <v>629</v>
       </c>
-      <c r="J14" s="222">
+      <c r="J14" s="230">
         <v>39</v>
       </c>
-      <c r="K14" s="226">
+      <c r="K14" s="227">
         <f>J14/I14*100</f>
         <v>6.2003179650238476</v>
       </c>
-      <c r="L14" s="232">
+      <c r="L14" s="223">
         <f>K14*E14/100</f>
         <v>94.86486486486487</v>
       </c>
-      <c r="M14" s="229">
+      <c r="M14" s="220">
         <v>77.265000000000001</v>
       </c>
-      <c r="N14" s="229">
+      <c r="N14" s="220">
         <v>115.36199999999999</v>
       </c>
     </row>
@@ -9266,7 +9266,7 @@
       <c r="D15" s="53">
         <v>283</v>
       </c>
-      <c r="E15" s="223"/>
+      <c r="E15" s="225"/>
       <c r="F15" s="54">
         <v>1.7719556892081201</v>
       </c>
@@ -9276,12 +9276,12 @@
       <c r="H15" s="54">
         <v>1.3815329548459752</v>
       </c>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="227"/>
-      <c r="L15" s="232"/>
-      <c r="M15" s="230"/>
-      <c r="N15" s="230"/>
+      <c r="I15" s="225"/>
+      <c r="J15" s="225"/>
+      <c r="K15" s="228"/>
+      <c r="L15" s="223"/>
+      <c r="M15" s="221"/>
+      <c r="N15" s="221"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
@@ -9296,7 +9296,7 @@
       <c r="D16" s="53">
         <v>317</v>
       </c>
-      <c r="E16" s="223"/>
+      <c r="E16" s="225"/>
       <c r="F16" s="54">
         <v>2.0081580019669074</v>
       </c>
@@ -9306,12 +9306,12 @@
       <c r="H16" s="54">
         <v>1.5070120840151353</v>
       </c>
-      <c r="I16" s="223"/>
-      <c r="J16" s="223"/>
-      <c r="K16" s="227"/>
-      <c r="L16" s="232"/>
-      <c r="M16" s="230"/>
-      <c r="N16" s="230"/>
+      <c r="I16" s="225"/>
+      <c r="J16" s="225"/>
+      <c r="K16" s="228"/>
+      <c r="L16" s="223"/>
+      <c r="M16" s="221"/>
+      <c r="N16" s="221"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
@@ -9326,7 +9326,7 @@
       <c r="D17" s="53">
         <v>347</v>
       </c>
-      <c r="E17" s="223"/>
+      <c r="E17" s="225"/>
       <c r="F17" s="54">
         <v>2.1460013305241818</v>
       </c>
@@ -9336,12 +9336,12 @@
       <c r="H17" s="54">
         <v>1.6289662759227637</v>
       </c>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="227"/>
-      <c r="L17" s="232"/>
-      <c r="M17" s="230"/>
-      <c r="N17" s="230"/>
+      <c r="I17" s="225"/>
+      <c r="J17" s="225"/>
+      <c r="K17" s="228"/>
+      <c r="L17" s="223"/>
+      <c r="M17" s="221"/>
+      <c r="N17" s="221"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="16">
@@ -9356,7 +9356,7 @@
       <c r="D18" s="53">
         <v>343</v>
       </c>
-      <c r="E18" s="224"/>
+      <c r="E18" s="226"/>
       <c r="F18" s="54">
         <v>2.0663339650917001</v>
       </c>
@@ -9366,12 +9366,12 @@
       <c r="H18" s="54">
         <v>1.5540693825615397</v>
       </c>
-      <c r="I18" s="224"/>
-      <c r="J18" s="224"/>
-      <c r="K18" s="228"/>
-      <c r="L18" s="232"/>
-      <c r="M18" s="231"/>
-      <c r="N18" s="231"/>
+      <c r="I18" s="226"/>
+      <c r="J18" s="226"/>
+      <c r="K18" s="229"/>
+      <c r="L18" s="223"/>
+      <c r="M18" s="222"/>
+      <c r="N18" s="222"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="16">
@@ -9386,7 +9386,7 @@
       <c r="D19" s="53">
         <v>348</v>
       </c>
-      <c r="E19" s="225">
+      <c r="E19" s="224">
         <f>D19+D20+D21+D22+D23</f>
         <v>2023</v>
       </c>
@@ -9399,24 +9399,24 @@
       <c r="H19" s="54">
         <v>1.5719352311988648</v>
       </c>
-      <c r="I19" s="222">
+      <c r="I19" s="230">
         <v>829</v>
       </c>
-      <c r="J19" s="222">
+      <c r="J19" s="230">
         <v>149</v>
       </c>
-      <c r="K19" s="226">
+      <c r="K19" s="227">
         <f>J19/I19*100</f>
         <v>17.973462002412546</v>
       </c>
-      <c r="L19" s="232">
+      <c r="L19" s="223">
         <f>K19*E19/100</f>
         <v>363.60313630880586</v>
       </c>
-      <c r="M19" s="229">
+      <c r="M19" s="220">
         <v>330.55799999999999</v>
       </c>
-      <c r="N19" s="229">
+      <c r="N19" s="220">
         <v>399.34019999999998</v>
       </c>
     </row>
@@ -9433,7 +9433,7 @@
       <c r="D20" s="53">
         <v>385</v>
       </c>
-      <c r="E20" s="223"/>
+      <c r="E20" s="225"/>
       <c r="F20" s="54">
         <v>2.2203529206121524</v>
       </c>
@@ -9443,12 +9443,12 @@
       <c r="H20" s="54">
         <v>1.6755899154881095</v>
       </c>
-      <c r="I20" s="223"/>
-      <c r="J20" s="223"/>
-      <c r="K20" s="227"/>
-      <c r="L20" s="232"/>
-      <c r="M20" s="230"/>
-      <c r="N20" s="230"/>
+      <c r="I20" s="225"/>
+      <c r="J20" s="225"/>
+      <c r="K20" s="228"/>
+      <c r="L20" s="223"/>
+      <c r="M20" s="221"/>
+      <c r="N20" s="221"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="16">
@@ -9463,7 +9463,7 @@
       <c r="D21" s="53">
         <v>426</v>
       </c>
-      <c r="E21" s="223"/>
+      <c r="E21" s="225"/>
       <c r="F21" s="54">
         <v>2.4160431674417842</v>
       </c>
@@ -9473,12 +9473,12 @@
       <c r="H21" s="54">
         <v>1.7972168522113523</v>
       </c>
-      <c r="I21" s="223"/>
-      <c r="J21" s="223"/>
-      <c r="K21" s="227"/>
-      <c r="L21" s="232"/>
-      <c r="M21" s="230"/>
-      <c r="N21" s="230"/>
+      <c r="I21" s="225"/>
+      <c r="J21" s="225"/>
+      <c r="K21" s="228"/>
+      <c r="L21" s="223"/>
+      <c r="M21" s="221"/>
+      <c r="N21" s="221"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="16">
@@ -9493,7 +9493,7 @@
       <c r="D22" s="53">
         <v>416</v>
       </c>
-      <c r="E22" s="223"/>
+      <c r="E22" s="225"/>
       <c r="F22" s="54">
         <v>2.3082041770649409</v>
       </c>
@@ -9503,12 +9503,12 @@
       <c r="H22" s="54">
         <v>1.7612275669440518</v>
       </c>
-      <c r="I22" s="223"/>
-      <c r="J22" s="223"/>
-      <c r="K22" s="227"/>
-      <c r="L22" s="232"/>
-      <c r="M22" s="230"/>
-      <c r="N22" s="230"/>
+      <c r="I22" s="225"/>
+      <c r="J22" s="225"/>
+      <c r="K22" s="228"/>
+      <c r="L22" s="223"/>
+      <c r="M22" s="221"/>
+      <c r="N22" s="221"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="16">
@@ -9523,7 +9523,7 @@
       <c r="D23" s="53">
         <v>448</v>
       </c>
-      <c r="E23" s="224"/>
+      <c r="E23" s="226"/>
       <c r="F23" s="54">
         <v>2.4338441521877976</v>
       </c>
@@ -9533,12 +9533,12 @@
       <c r="H23" s="54">
         <v>1.8049561310114635</v>
       </c>
-      <c r="I23" s="224"/>
-      <c r="J23" s="224"/>
-      <c r="K23" s="228"/>
-      <c r="L23" s="232"/>
-      <c r="M23" s="231"/>
-      <c r="N23" s="231"/>
+      <c r="I23" s="226"/>
+      <c r="J23" s="226"/>
+      <c r="K23" s="229"/>
+      <c r="L23" s="223"/>
+      <c r="M23" s="222"/>
+      <c r="N23" s="222"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="16">
@@ -9553,7 +9553,7 @@
       <c r="D24" s="53">
         <v>508</v>
       </c>
-      <c r="E24" s="225">
+      <c r="E24" s="224">
         <f>D24+D25+D26+D27+D28</f>
         <v>2692</v>
       </c>
@@ -9566,24 +9566,24 @@
       <c r="H24" s="54">
         <v>2.0098471645793503</v>
       </c>
-      <c r="I24" s="222">
+      <c r="I24" s="230">
         <v>1135</v>
       </c>
-      <c r="J24" s="222">
+      <c r="J24" s="230">
         <v>265</v>
       </c>
-      <c r="K24" s="226">
+      <c r="K24" s="227">
         <f>J24/I24*100</f>
         <v>23.348017621145374</v>
       </c>
-      <c r="L24" s="232">
+      <c r="L24" s="223">
         <f>K24*E24/100</f>
         <v>628.52863436123346</v>
       </c>
-      <c r="M24" s="229">
+      <c r="M24" s="220">
         <v>586.32000000000005</v>
       </c>
-      <c r="N24" s="229">
+      <c r="N24" s="220">
         <v>673.27</v>
       </c>
     </row>
@@ -9600,7 +9600,7 @@
       <c r="D25" s="53">
         <v>523</v>
       </c>
-      <c r="E25" s="223"/>
+      <c r="E25" s="225"/>
       <c r="F25" s="54">
         <v>2.7122155464197211</v>
       </c>
@@ -9610,12 +9610,12 @@
       <c r="H25" s="54">
         <v>2.0118333093114917</v>
       </c>
-      <c r="I25" s="223"/>
-      <c r="J25" s="223"/>
-      <c r="K25" s="227"/>
-      <c r="L25" s="232"/>
-      <c r="M25" s="230"/>
-      <c r="N25" s="230"/>
+      <c r="I25" s="225"/>
+      <c r="J25" s="225"/>
+      <c r="K25" s="228"/>
+      <c r="L25" s="223"/>
+      <c r="M25" s="221"/>
+      <c r="N25" s="221"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="16">
@@ -9630,7 +9630,7 @@
       <c r="D26" s="53">
         <v>534</v>
       </c>
-      <c r="E26" s="223"/>
+      <c r="E26" s="225"/>
       <c r="F26" s="54">
         <v>2.7108673149095535</v>
       </c>
@@ -9640,12 +9640,12 @@
       <c r="H26" s="54">
         <v>2.0219342182552582</v>
       </c>
-      <c r="I26" s="223"/>
-      <c r="J26" s="223"/>
-      <c r="K26" s="227"/>
-      <c r="L26" s="232"/>
-      <c r="M26" s="230"/>
-      <c r="N26" s="230"/>
+      <c r="I26" s="225"/>
+      <c r="J26" s="225"/>
+      <c r="K26" s="228"/>
+      <c r="L26" s="223"/>
+      <c r="M26" s="221"/>
+      <c r="N26" s="221"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="16">
@@ -9660,7 +9660,7 @@
       <c r="D27" s="53">
         <v>540</v>
       </c>
-      <c r="E27" s="223"/>
+      <c r="E27" s="225"/>
       <c r="F27" s="54">
         <v>2.688155340477925</v>
       </c>
@@ -9670,12 +9670,12 @@
       <c r="H27" s="54">
         <v>2.0173488746429538</v>
       </c>
-      <c r="I27" s="223"/>
-      <c r="J27" s="223"/>
-      <c r="K27" s="227"/>
-      <c r="L27" s="232"/>
-      <c r="M27" s="230"/>
-      <c r="N27" s="230"/>
+      <c r="I27" s="225"/>
+      <c r="J27" s="225"/>
+      <c r="K27" s="228"/>
+      <c r="L27" s="223"/>
+      <c r="M27" s="221"/>
+      <c r="N27" s="221"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="16">
@@ -9690,7 +9690,7 @@
       <c r="D28" s="53">
         <v>587</v>
       </c>
-      <c r="E28" s="224"/>
+      <c r="E28" s="226"/>
       <c r="F28" s="54">
         <v>2.8626073248076112</v>
       </c>
@@ -9700,12 +9700,12 @@
       <c r="H28" s="54">
         <v>2.1498491800794213</v>
       </c>
-      <c r="I28" s="224"/>
-      <c r="J28" s="224"/>
-      <c r="K28" s="228"/>
-      <c r="L28" s="232"/>
-      <c r="M28" s="231"/>
-      <c r="N28" s="231"/>
+      <c r="I28" s="226"/>
+      <c r="J28" s="226"/>
+      <c r="K28" s="229"/>
+      <c r="L28" s="223"/>
+      <c r="M28" s="222"/>
+      <c r="N28" s="222"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="16">
@@ -9720,7 +9720,7 @@
       <c r="D29" s="53">
         <v>645</v>
       </c>
-      <c r="E29" s="225">
+      <c r="E29" s="224">
         <f>D29+D30+D31+D32+D33</f>
         <v>3601.23184395</v>
       </c>
@@ -9733,24 +9733,24 @@
       <c r="H29" s="54">
         <v>2.313361000540707</v>
       </c>
-      <c r="I29" s="222">
+      <c r="I29" s="230">
         <v>1526</v>
       </c>
-      <c r="J29" s="222">
+      <c r="J29" s="230">
         <v>203</v>
       </c>
-      <c r="K29" s="226">
+      <c r="K29" s="227">
         <f>J29/I29*100</f>
         <v>13.302752293577983</v>
       </c>
-      <c r="L29" s="232">
+      <c r="L29" s="223">
         <f>K29*E29/100</f>
         <v>479.06295171811928</v>
       </c>
-      <c r="M29" s="229">
+      <c r="M29" s="220">
         <v>439.71</v>
       </c>
-      <c r="N29" s="229">
+      <c r="N29" s="220">
         <v>520.37800000000004</v>
       </c>
     </row>
@@ -9767,7 +9767,7 @@
       <c r="D30" s="53">
         <v>668</v>
       </c>
-      <c r="E30" s="223"/>
+      <c r="E30" s="225"/>
       <c r="F30" s="54">
         <v>3.1146667573487639</v>
       </c>
@@ -9777,12 +9777,12 @@
       <c r="H30" s="54">
         <v>2.3260301959217751</v>
       </c>
-      <c r="I30" s="223"/>
-      <c r="J30" s="223"/>
-      <c r="K30" s="227"/>
-      <c r="L30" s="232"/>
-      <c r="M30" s="230"/>
-      <c r="N30" s="230"/>
+      <c r="I30" s="225"/>
+      <c r="J30" s="225"/>
+      <c r="K30" s="228"/>
+      <c r="L30" s="223"/>
+      <c r="M30" s="221"/>
+      <c r="N30" s="221"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="16">
@@ -9797,7 +9797,7 @@
       <c r="D31" s="53">
         <v>679</v>
       </c>
-      <c r="E31" s="223"/>
+      <c r="E31" s="225"/>
       <c r="F31" s="54">
         <v>3.0722250635865049</v>
       </c>
@@ -9807,12 +9807,12 @@
       <c r="H31" s="54">
         <v>2.2872918105156086</v>
       </c>
-      <c r="I31" s="223"/>
-      <c r="J31" s="223"/>
-      <c r="K31" s="227"/>
-      <c r="L31" s="232"/>
-      <c r="M31" s="230"/>
-      <c r="N31" s="230"/>
+      <c r="I31" s="225"/>
+      <c r="J31" s="225"/>
+      <c r="K31" s="228"/>
+      <c r="L31" s="223"/>
+      <c r="M31" s="221"/>
+      <c r="N31" s="221"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="16">
@@ -9827,7 +9827,7 @@
       <c r="D32" s="53">
         <v>796</v>
       </c>
-      <c r="E32" s="223"/>
+      <c r="E32" s="225"/>
       <c r="F32" s="54">
         <v>3.5331130956107764</v>
       </c>
@@ -9837,12 +9837,12 @@
       <c r="H32" s="54">
         <v>2.6234076518668821</v>
       </c>
-      <c r="I32" s="223"/>
-      <c r="J32" s="223"/>
-      <c r="K32" s="227"/>
-      <c r="L32" s="232"/>
-      <c r="M32" s="230"/>
-      <c r="N32" s="230"/>
+      <c r="I32" s="225"/>
+      <c r="J32" s="225"/>
+      <c r="K32" s="228"/>
+      <c r="L32" s="223"/>
+      <c r="M32" s="221"/>
+      <c r="N32" s="221"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="16">
@@ -9857,7 +9857,7 @@
       <c r="D33" s="53">
         <v>813.23184394999998</v>
       </c>
-      <c r="E33" s="224"/>
+      <c r="E33" s="226"/>
       <c r="F33" s="54">
         <v>3.5368903113230372</v>
       </c>
@@ -9867,12 +9867,12 @@
       <c r="H33" s="54">
         <v>2.6260083639324727</v>
       </c>
-      <c r="I33" s="224"/>
-      <c r="J33" s="224"/>
-      <c r="K33" s="228"/>
-      <c r="L33" s="232"/>
-      <c r="M33" s="231"/>
-      <c r="N33" s="231"/>
+      <c r="I33" s="226"/>
+      <c r="J33" s="226"/>
+      <c r="K33" s="229"/>
+      <c r="L33" s="223"/>
+      <c r="M33" s="222"/>
+      <c r="N33" s="222"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="16">
@@ -9935,6 +9935,25 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I14:I18"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="I24:I28"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="K14:K18"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="K24:K28"/>
+    <mergeCell ref="K29:K33"/>
+    <mergeCell ref="I29:I33"/>
+    <mergeCell ref="J14:J18"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="J24:J28"/>
+    <mergeCell ref="J29:J33"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="M14:M18"/>
     <mergeCell ref="M19:M23"/>
@@ -9948,25 +9967,6 @@
     <mergeCell ref="L19:L23"/>
     <mergeCell ref="L24:L28"/>
     <mergeCell ref="L29:L33"/>
-    <mergeCell ref="E29:E33"/>
-    <mergeCell ref="K14:K18"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="K24:K28"/>
-    <mergeCell ref="K29:K33"/>
-    <mergeCell ref="I29:I33"/>
-    <mergeCell ref="J14:J18"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="J24:J28"/>
-    <mergeCell ref="J29:J33"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I14:I18"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="I24:I28"/>
-    <mergeCell ref="E14:E18"/>
-    <mergeCell ref="E19:E23"/>
-    <mergeCell ref="E24:E28"/>
-    <mergeCell ref="I3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10026,7 +10026,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10751,7 +10751,7 @@
   <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11455,7 +11455,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A3" sqref="A3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12344,7 +12344,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12940,8 +12940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14882,7 +14882,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A26" sqref="A26:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16742,7 +16742,7 @@
   <dimension ref="A1:R29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A26" sqref="A26:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17899,7 +17899,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B23"/>
+      <selection activeCell="A26" sqref="A26:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19026,34 +19026,34 @@
     </row>
     <row r="3" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="141"/>
-      <c r="B3" s="186" t="s">
+      <c r="B3" s="184" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="184"/>
       <c r="D3" s="146"/>
       <c r="E3" s="146"/>
-      <c r="F3" s="186" t="s">
+      <c r="F3" s="184" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="186"/>
+      <c r="G3" s="184"/>
       <c r="H3" s="146"/>
       <c r="I3" s="146"/>
-      <c r="J3" s="186" t="s">
+      <c r="J3" s="184" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="186"/>
+      <c r="K3" s="184"/>
       <c r="L3" s="146"/>
       <c r="M3" s="146"/>
-      <c r="N3" s="186" t="s">
+      <c r="N3" s="184" t="s">
         <v>164</v>
       </c>
-      <c r="O3" s="186"/>
+      <c r="O3" s="184"/>
       <c r="P3" s="146"/>
       <c r="Q3" s="146"/>
-      <c r="R3" s="186" t="s">
+      <c r="R3" s="184" t="s">
         <v>165</v>
       </c>
-      <c r="S3" s="186"/>
+      <c r="S3" s="184"/>
       <c r="T3" s="147"/>
       <c r="U3" s="147"/>
     </row>
@@ -19065,7 +19065,7 @@
       <c r="C4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="184" t="s">
+      <c r="D4" s="185" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="177"/>
@@ -19075,7 +19075,7 @@
       <c r="G4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="184" t="s">
+      <c r="H4" s="185" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="177"/>
@@ -19085,7 +19085,7 @@
       <c r="K4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="184" t="s">
+      <c r="L4" s="185" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="177"/>
@@ -19095,7 +19095,7 @@
       <c r="O4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="184" t="s">
+      <c r="P4" s="185" t="s">
         <v>7</v>
       </c>
       <c r="Q4" s="177"/>
@@ -19105,7 +19105,7 @@
       <c r="S4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="184" t="s">
+      <c r="T4" s="185" t="s">
         <v>7</v>
       </c>
       <c r="U4" s="177"/>
@@ -19344,27 +19344,27 @@
       <c r="U9" s="147"/>
     </row>
     <row r="10" spans="1:32" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="185" t="s">
+      <c r="A10" s="186" t="s">
         <v>158</v>
       </c>
-      <c r="B10" s="185"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
-      <c r="E10" s="185"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="185"/>
-      <c r="H10" s="185"/>
-      <c r="I10" s="185"/>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="185"/>
-      <c r="O10" s="185"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="186"/>
+      <c r="D10" s="186"/>
+      <c r="E10" s="186"/>
+      <c r="F10" s="186"/>
+      <c r="G10" s="186"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="186"/>
+      <c r="J10" s="186"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
+      <c r="O10" s="186"/>
+      <c r="P10" s="186"/>
+      <c r="Q10" s="186"/>
+      <c r="R10" s="186"/>
+      <c r="S10" s="186"/>
       <c r="T10" s="147"/>
       <c r="U10" s="147"/>
     </row>
@@ -19376,7 +19376,7 @@
       <c r="C11" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="184" t="s">
+      <c r="D11" s="185" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="177"/>
@@ -19386,7 +19386,7 @@
       <c r="G11" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="184" t="s">
+      <c r="H11" s="185" t="s">
         <v>7</v>
       </c>
       <c r="I11" s="177"/>
@@ -19396,7 +19396,7 @@
       <c r="K11" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="L11" s="184" t="s">
+      <c r="L11" s="185" t="s">
         <v>7</v>
       </c>
       <c r="M11" s="177"/>
@@ -19406,7 +19406,7 @@
       <c r="O11" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="184" t="s">
+      <c r="P11" s="185" t="s">
         <v>7</v>
       </c>
       <c r="Q11" s="177"/>
@@ -19416,7 +19416,7 @@
       <c r="S11" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="T11" s="184" t="s">
+      <c r="T11" s="185" t="s">
         <v>7</v>
       </c>
       <c r="U11" s="177"/>
@@ -19634,11 +19634,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="R3:S3"/>
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="L4:M4"/>
@@ -19650,6 +19645,11 @@
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="A10:S10"/>
     <mergeCell ref="D4:E4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="R3:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -19788,34 +19788,34 @@
     </row>
     <row r="3" spans="1:33" s="154" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="91"/>
-      <c r="B3" s="190" t="s">
+      <c r="B3" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="190"/>
+      <c r="C3" s="187"/>
       <c r="D3" s="150"/>
       <c r="E3" s="150"/>
-      <c r="F3" s="191" t="s">
+      <c r="F3" s="188" t="s">
         <v>162</v>
       </c>
-      <c r="G3" s="191"/>
+      <c r="G3" s="188"/>
       <c r="H3" s="151"/>
       <c r="I3" s="151"/>
-      <c r="J3" s="191" t="s">
+      <c r="J3" s="188" t="s">
         <v>163</v>
       </c>
-      <c r="K3" s="191"/>
+      <c r="K3" s="188"/>
       <c r="L3" s="151"/>
       <c r="M3" s="151"/>
-      <c r="N3" s="191" t="s">
+      <c r="N3" s="188" t="s">
         <v>164</v>
       </c>
-      <c r="O3" s="191"/>
+      <c r="O3" s="188"/>
       <c r="P3" s="151"/>
       <c r="Q3" s="151"/>
-      <c r="R3" s="191" t="s">
+      <c r="R3" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="S3" s="191"/>
+      <c r="S3" s="188"/>
       <c r="T3" s="91"/>
       <c r="U3" s="91"/>
     </row>
@@ -19827,7 +19827,7 @@
       <c r="C4" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="189" t="s">
+      <c r="D4" s="191" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="177"/>
@@ -19837,7 +19837,7 @@
       <c r="G4" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="188" t="s">
+      <c r="H4" s="190" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="177"/>
@@ -19847,7 +19847,7 @@
       <c r="K4" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="188" t="s">
+      <c r="L4" s="190" t="s">
         <v>7</v>
       </c>
       <c r="M4" s="177"/>
@@ -19857,7 +19857,7 @@
       <c r="O4" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="188" t="s">
+      <c r="P4" s="190" t="s">
         <v>7</v>
       </c>
       <c r="Q4" s="177"/>
@@ -19867,7 +19867,7 @@
       <c r="S4" s="152" t="s">
         <v>4</v>
       </c>
-      <c r="T4" s="187" t="s">
+      <c r="T4" s="189" t="s">
         <v>7</v>
       </c>
       <c r="U4" s="177"/>
@@ -20099,16 +20099,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
